--- a/matsukifudousan/files/委任状.xlsx
+++ b/matsukifudousan/files/委任状.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fudousan\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\matsukifudousan-git-backup - コピー (2)\matsukifudousan\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6F96D-7DC2-4197-A2AA-A1728A0AD3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A9BEA1-F1E4-4408-83C8-D4969ECF29A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{495FEB25-57FB-4203-8652-967C0EE55612}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>委　任　状</t>
     <phoneticPr fontId="1"/>
@@ -110,46 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. 建物名称：！参照不</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 所  在  地：！参照不</t>
-    <rPh sb="3" eb="4">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ザイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4. 賃貸期間：！参照不</t>
-    <rPh sb="3" eb="7">
-      <t>チンタイキカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>より平成19年01月31日　　まで</t>
-    <rPh sb="2" eb="4">
-      <t>ヘイセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5. 借主氏名：遠藤秋雄</t>
     <rPh sb="3" eb="5">
       <t>カリヌシ</t>
@@ -160,53 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6. 家  賃  等：月額家賃　　\70, 000 円　管  理  費</t>
-    <rPh sb="3" eb="4">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ゲツガクヤチン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>リ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　敷　　金　   \210, 000 円　礼　　金</t>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>\0 円　駐車料</t>
     <rPh sb="3" eb="4">
       <t>エン</t>
@@ -221,6 +134,97 @@
   </si>
   <si>
     <t xml:space="preserve"> 円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 所  在  地：</t>
+    <rPh sb="3" eb="4">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 建物名称：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 賃貸期間：</t>
+    <rPh sb="3" eb="7">
+      <t>チンタイキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\0 円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. 家  賃  等：月額家賃　　\0 円　管  理  費</t>
+    <rPh sb="3" eb="4">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ゲツガクヤチン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　敷　　金　   \0円　礼　　金</t>
+    <rPh sb="1" eb="2">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>より平成　年　月　日　　まで</t>
+    <rPh sb="2" eb="4">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -356,44 +360,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,91 +715,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A993DBE6-CA25-4CD1-8C97-4C6D5046CFFA}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
@@ -808,14 +812,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
@@ -828,65 +832,65 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
